--- a/biology/Histoire de la zoologie et de la botanique/Hugo_de_Vries/Hugo_de_Vries.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hugo_de_Vries/Hugo_de_Vries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hugo Marie de Vries[1],[2], en français Hugo Marie De Vries[3],[4], est un botaniste néerlandais né à Haarlem le 16 février 1848 et mort le 21 mai 1935 à Lunteren. Il invente le terme de mutation en science de l'hérédité dans son sens génétique dans le cadre de sa théorie mutationniste[5] élaborée de 1901 à 1903[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hugo Marie de Vries en français Hugo Marie De Vries est un botaniste néerlandais né à Haarlem le 16 février 1848 et mort le 21 mai 1935 à Lunteren. Il invente le terme de mutation en science de l'hérédité dans son sens génétique dans le cadre de sa théorie mutationniste élaborée de 1901 à 1903.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugo de Vries est le fils aîné du président du Conseil Gerrit de Vries (1818-1900) et de Maria Everardina Reuvens (1823–1914), fille du professeur d'archéologie Caspar Reuvens. Il étudie au Gymnasium Haganum.
 Sans avoir lu les conclusions de Mendel sur la transmission des caractères des plantes, il aboutit aux mêmes conclusions. Ses travaux furent publiés en 1900 à la fois en français et en allemand. Le nom de Mendel n'est pas mentionné dans les travaux en français mais dans les travaux en allemand.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Intracellular Pangenesis (1889)
 The Mutation Theory German edition Bd. 1-2 (1901–03), English edition Volume 2 (1909–10) Retrieved 2009-08-20
